--- a/data/published/2020_Colloff_Flowe_SealeCarlisle_etal/testInput.xlsx
+++ b/data/published/2020_Colloff_Flowe_SealeCarlisle_etal/testInput.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauramickes/Google Drive/Current/18Modelling Programming/pyWitness/data/published/2020_Colloff_Flowe_SealeCarlisle_etal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauramickes/Google Drive/Current/18ModellingProgramming/pyWitness/data/published/2020_Colloff_Flowe_SealeCarlisle_etal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C8FAF6-4E2F-D945-95F3-9DBCD3077C5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2B41C2-D658-6145-8701-5867EC62E95C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12240" yWindow="5540" windowWidth="38960" windowHeight="22380" xr2:uid="{9ED41D21-AD87-EA4A-9860-FFB390C24F36}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="58">
   <si>
     <t>Data translator</t>
   </si>
@@ -199,6 +199,15 @@
   </si>
   <si>
     <t>condition 3</t>
+  </si>
+  <si>
+    <t>published_Colloff_Flowe_SealeCarlisle_2020_Experiment2()</t>
+  </si>
+  <si>
+    <t>encodingConditionRaw 1</t>
+  </si>
+  <si>
+    <t>encodingConditionRaw 2</t>
   </si>
 </sst>
 </file>
@@ -572,20 +581,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D299942-CAD7-8B42-80C6-6BA1FC3BDCD5}">
-  <dimension ref="A1:S43"/>
+  <dimension ref="A1:AE43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA5:AE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="19" width="35" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="10.83203125" style="2"/>
+    <col min="2" max="31" width="35" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -643,8 +652,44 @@
       <c r="S1" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -702,8 +747,44 @@
       <c r="S2" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -761,8 +842,44 @@
       <c r="S3" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -820,8 +937,44 @@
       <c r="S4" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -879,8 +1032,44 @@
       <c r="S5" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -938,8 +1127,44 @@
       <c r="S6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U6" t="s">
+        <v>50</v>
+      </c>
+      <c r="V6" t="s">
+        <v>50</v>
+      </c>
+      <c r="W6" t="s">
+        <v>50</v>
+      </c>
+      <c r="X6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -997,8 +1222,44 @@
       <c r="S7" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE7" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -1056,43 +1317,79 @@
       <c r="S8" s="4">
         <v>2000</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="4">
+        <v>2000</v>
+      </c>
+      <c r="U8" s="4">
+        <v>2000</v>
+      </c>
+      <c r="V8" s="4">
+        <v>2000</v>
+      </c>
+      <c r="W8" s="4">
+        <v>2000</v>
+      </c>
+      <c r="X8" s="4">
+        <v>2000</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>2000</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>2000</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>2000</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>2000</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>2000</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>2000</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
